--- a/Code/Results/Cases/Case_7_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017819947829332</v>
+        <v>1.020061952569123</v>
       </c>
       <c r="D2">
-        <v>1.038337052086513</v>
+        <v>1.04028713869119</v>
       </c>
       <c r="E2">
-        <v>1.021188555554833</v>
+        <v>1.023713255880959</v>
       </c>
       <c r="F2">
-        <v>1.042622030240472</v>
+        <v>1.044605911974865</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057251030255355</v>
+        <v>1.057981572462838</v>
       </c>
       <c r="J2">
-        <v>1.039480424268549</v>
+        <v>1.041658735316654</v>
       </c>
       <c r="K2">
-        <v>1.049286929158019</v>
+        <v>1.05121235405419</v>
       </c>
       <c r="L2">
-        <v>1.032360386169443</v>
+        <v>1.03485182417376</v>
       </c>
       <c r="M2">
-        <v>1.053517868808974</v>
+        <v>1.055476918654526</v>
       </c>
       <c r="N2">
-        <v>1.040956605701082</v>
+        <v>1.04313801020073</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024476561238906</v>
+        <v>1.024301835711353</v>
       </c>
       <c r="D3">
-        <v>1.043648911658926</v>
+        <v>1.043639307578515</v>
       </c>
       <c r="E3">
-        <v>1.026735809594942</v>
+        <v>1.027100174477235</v>
       </c>
       <c r="F3">
-        <v>1.048468205495486</v>
+        <v>1.048458441904195</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05977419473392</v>
+        <v>1.059549616908036</v>
       </c>
       <c r="J3">
-        <v>1.044321503499699</v>
+        <v>1.044151239660032</v>
       </c>
       <c r="K3">
-        <v>1.053752172455031</v>
+        <v>1.053742678886454</v>
       </c>
       <c r="L3">
-        <v>1.037037658108635</v>
+        <v>1.037397659264557</v>
       </c>
       <c r="M3">
-        <v>1.058516326864413</v>
+        <v>1.058506674350178</v>
       </c>
       <c r="N3">
-        <v>1.045804559820019</v>
+        <v>1.04563405418617</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028667821624258</v>
+        <v>1.026992661426545</v>
       </c>
       <c r="D4">
-        <v>1.046995636912604</v>
+        <v>1.045769070423547</v>
       </c>
       <c r="E4">
-        <v>1.030233653507055</v>
+        <v>1.029255206582648</v>
       </c>
       <c r="F4">
-        <v>1.052154146841441</v>
+        <v>1.050907758069459</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061349891646019</v>
+        <v>1.060535221820879</v>
       </c>
       <c r="J4">
-        <v>1.047365581480745</v>
+        <v>1.045730218206805</v>
       </c>
       <c r="K4">
-        <v>1.056558116142424</v>
+        <v>1.05534478644231</v>
       </c>
       <c r="L4">
-        <v>1.039980380690048</v>
+        <v>1.03901291711155</v>
       </c>
       <c r="M4">
-        <v>1.061661370401578</v>
+        <v>1.060428271530108</v>
       </c>
       <c r="N4">
-        <v>1.048852960740959</v>
+        <v>1.047215275063591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030403436846229</v>
+        <v>1.028111690937802</v>
       </c>
       <c r="D5">
-        <v>1.048381964474372</v>
+        <v>1.046655287679398</v>
       </c>
       <c r="E5">
-        <v>1.031683267268509</v>
+        <v>1.030152707927386</v>
       </c>
       <c r="F5">
-        <v>1.053681616763853</v>
+        <v>1.051927353225913</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061999221601417</v>
+        <v>1.06094277785763</v>
       </c>
       <c r="J5">
-        <v>1.048625116940936</v>
+        <v>1.046386145165025</v>
       </c>
       <c r="K5">
-        <v>1.057718669589955</v>
+        <v>1.056010116446724</v>
       </c>
       <c r="L5">
-        <v>1.041198366587323</v>
+        <v>1.039684513552441</v>
       </c>
       <c r="M5">
-        <v>1.062963148081502</v>
+        <v>1.061227072739052</v>
       </c>
       <c r="N5">
-        <v>1.050114284885973</v>
+        <v>1.047872133513327</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030693345063195</v>
+        <v>1.028298877556952</v>
       </c>
       <c r="D6">
-        <v>1.048613552829801</v>
+        <v>1.046803559598907</v>
       </c>
       <c r="E6">
-        <v>1.031925468524092</v>
+        <v>1.030302913095101</v>
       </c>
       <c r="F6">
-        <v>1.053936820388846</v>
+        <v>1.052097964765132</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062107494240731</v>
+        <v>1.061010814417612</v>
       </c>
       <c r="J6">
-        <v>1.048835441264338</v>
+        <v>1.046495822720221</v>
       </c>
       <c r="K6">
-        <v>1.057912438398725</v>
+        <v>1.056121354062042</v>
       </c>
       <c r="L6">
-        <v>1.041401775340317</v>
+        <v>1.039796846400652</v>
       </c>
       <c r="M6">
-        <v>1.063180553243454</v>
+        <v>1.061360672435183</v>
       </c>
       <c r="N6">
-        <v>1.05032490789404</v>
+        <v>1.047981966823233</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028691114942184</v>
+        <v>1.02700766133143</v>
       </c>
       <c r="D7">
-        <v>1.047014240894447</v>
+        <v>1.045780947637694</v>
       </c>
       <c r="E7">
-        <v>1.030253104027307</v>
+        <v>1.029267231985666</v>
       </c>
       <c r="F7">
-        <v>1.052174642403751</v>
+        <v>1.050921421206811</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061358618781458</v>
+        <v>1.060540694091203</v>
       </c>
       <c r="J7">
-        <v>1.047382489570759</v>
+        <v>1.045739013389081</v>
       </c>
       <c r="K7">
-        <v>1.056573697293738</v>
+        <v>1.055353708525793</v>
       </c>
       <c r="L7">
-        <v>1.039996729490332</v>
+        <v>1.039021920037073</v>
       </c>
       <c r="M7">
-        <v>1.061678843728674</v>
+        <v>1.060438980322923</v>
       </c>
       <c r="N7">
-        <v>1.0488698928424</v>
+        <v>1.047224082736035</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020094468684914</v>
+        <v>1.021506000275387</v>
       </c>
       <c r="D8">
-        <v>1.04015156810813</v>
+        <v>1.041428330898849</v>
       </c>
       <c r="E8">
-        <v>1.023082898744576</v>
+        <v>1.024865612018377</v>
       </c>
       <c r="F8">
-        <v>1.044618531951365</v>
+        <v>1.045917104638975</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058115879081428</v>
+        <v>1.05851760663312</v>
       </c>
       <c r="J8">
-        <v>1.041135407710873</v>
+        <v>1.042508234298497</v>
       </c>
       <c r="K8">
-        <v>1.050813799376151</v>
+        <v>1.052074913541306</v>
       </c>
       <c r="L8">
-        <v>1.033959018081742</v>
+        <v>1.035718975989369</v>
       </c>
       <c r="M8">
-        <v>1.05522622168577</v>
+        <v>1.056509047387386</v>
       </c>
       <c r="N8">
-        <v>1.042613939409723</v>
+        <v>1.043988715568567</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0039895851026</v>
+        <v>1.011388451549166</v>
       </c>
       <c r="D9">
-        <v>1.02731692915434</v>
+        <v>1.033444282188983</v>
       </c>
       <c r="E9">
-        <v>1.009695093500381</v>
+        <v>1.016816805271564</v>
       </c>
       <c r="F9">
-        <v>1.030507252860677</v>
+        <v>1.036750214146042</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051938867114827</v>
+        <v>1.054722970666089</v>
       </c>
       <c r="J9">
-        <v>1.029402243185397</v>
+        <v>1.03654536587755</v>
       </c>
       <c r="K9">
-        <v>1.039981827276717</v>
+        <v>1.0460170911851</v>
       </c>
       <c r="L9">
-        <v>1.0226328088376</v>
+        <v>1.029642808941643</v>
       </c>
       <c r="M9">
-        <v>1.043124029063962</v>
+        <v>1.049273912175977</v>
       </c>
       <c r="N9">
-        <v>1.030864112444807</v>
+        <v>1.038017379190511</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9925045844276292</v>
+        <v>1.004330074926427</v>
       </c>
       <c r="D10">
-        <v>1.01818556875849</v>
+        <v>1.027891039075978</v>
       </c>
       <c r="E10">
-        <v>1.000184163352115</v>
+        <v>1.011235317933844</v>
       </c>
       <c r="F10">
-        <v>1.020480654242035</v>
+        <v>1.030382007720334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047468427817984</v>
+        <v>1.052027818560187</v>
       </c>
       <c r="J10">
-        <v>1.02101877565285</v>
+        <v>1.032372941899092</v>
       </c>
       <c r="K10">
-        <v>1.032234060824702</v>
+        <v>1.041774333283003</v>
       </c>
       <c r="L10">
-        <v>1.014550093468684</v>
+        <v>1.025404635683867</v>
       </c>
       <c r="M10">
-        <v>1.03448971483121</v>
+        <v>1.044223549591276</v>
       </c>
       <c r="N10">
-        <v>1.022468739426768</v>
+        <v>1.03383902989142</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9873269271444555</v>
+        <v>1.00119242851088</v>
       </c>
       <c r="D11">
-        <v>1.014075754243147</v>
+        <v>1.025427119466731</v>
       </c>
       <c r="E11">
-        <v>0.9959066041548084</v>
+        <v>1.008762810235569</v>
       </c>
       <c r="F11">
-        <v>1.015970841838886</v>
+        <v>1.027558164876103</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045438551608378</v>
+        <v>1.050818925665748</v>
       </c>
       <c r="J11">
-        <v>1.017236592514015</v>
+        <v>1.030515685062761</v>
       </c>
       <c r="K11">
-        <v>1.028737016297396</v>
+        <v>1.039884936751204</v>
       </c>
       <c r="L11">
-        <v>1.010906131006747</v>
+        <v>1.02352134344514</v>
       </c>
       <c r="M11">
-        <v>1.030597728098213</v>
+        <v>1.041978437992004</v>
       </c>
       <c r="N11">
-        <v>1.018681185154053</v>
+        <v>1.031979135537351</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9853703647463724</v>
+        <v>1.000014111429156</v>
       </c>
       <c r="D12">
-        <v>1.012523890151461</v>
+        <v>1.024502575100274</v>
       </c>
       <c r="E12">
-        <v>0.9942918430076714</v>
+        <v>1.007835632460351</v>
       </c>
       <c r="F12">
-        <v>1.01426836339577</v>
+        <v>1.026498801074332</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044669404081058</v>
+        <v>1.050363357150877</v>
       </c>
       <c r="J12">
-        <v>1.015807046650423</v>
+        <v>1.029817874046163</v>
       </c>
       <c r="K12">
-        <v>1.027415022181664</v>
+        <v>1.03917493314231</v>
       </c>
       <c r="L12">
-        <v>1.009529225518558</v>
+        <v>1.022814238187613</v>
       </c>
       <c r="M12">
-        <v>1.029127216032623</v>
+        <v>1.041135345456685</v>
       </c>
       <c r="N12">
-        <v>1.017249609171364</v>
+        <v>1.03128033354907</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9857916084580057</v>
+        <v>1.000267456878264</v>
       </c>
       <c r="D13">
-        <v>1.012857947410637</v>
+        <v>1.024701322485496</v>
       </c>
       <c r="E13">
-        <v>0.9946394199515298</v>
+        <v>1.008034919374546</v>
       </c>
       <c r="F13">
-        <v>1.014634823272591</v>
+        <v>1.026726519906368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04483509248244</v>
+        <v>1.050461377758626</v>
       </c>
       <c r="J13">
-        <v>1.016114837238558</v>
+        <v>1.029967922112609</v>
       </c>
       <c r="K13">
-        <v>1.027699665718458</v>
+        <v>1.039327608098368</v>
       </c>
       <c r="L13">
-        <v>1.009825664074994</v>
+        <v>1.022966262682616</v>
       </c>
       <c r="M13">
-        <v>1.029443802189659</v>
+        <v>1.041316612849768</v>
       </c>
       <c r="N13">
-        <v>1.017557836857437</v>
+        <v>1.031430594700981</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9871658936045793</v>
+        <v>1.001095294535314</v>
       </c>
       <c r="D14">
-        <v>1.013948004306559</v>
+        <v>1.025350889299472</v>
       </c>
       <c r="E14">
-        <v>0.9957736676445648</v>
+        <v>1.008686350978598</v>
       </c>
       <c r="F14">
-        <v>1.015830684754782</v>
+        <v>1.027470813924291</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045375289200096</v>
+        <v>1.050781402924179</v>
       </c>
       <c r="J14">
-        <v>1.017118940450239</v>
+        <v>1.030458167899601</v>
       </c>
       <c r="K14">
-        <v>1.028628220107549</v>
+        <v>1.039826416943581</v>
       </c>
       <c r="L14">
-        <v>1.010792803102139</v>
+        <v>1.023463050272227</v>
       </c>
       <c r="M14">
-        <v>1.030476693441048</v>
+        <v>1.041908936945248</v>
       </c>
       <c r="N14">
-        <v>1.018563366010852</v>
+        <v>1.031921536693222</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9880081335424599</v>
+        <v>1.001603629386461</v>
       </c>
       <c r="D15">
-        <v>1.014616212658367</v>
+        <v>1.02574985883898</v>
       </c>
       <c r="E15">
-        <v>0.9964690227724751</v>
+        <v>1.009086543524567</v>
       </c>
       <c r="F15">
-        <v>1.016563807070093</v>
+        <v>1.027927996379278</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045706080890537</v>
+        <v>1.050977707996966</v>
       </c>
       <c r="J15">
-        <v>1.017734273857952</v>
+        <v>1.030759161260406</v>
       </c>
       <c r="K15">
-        <v>1.029197227461681</v>
+        <v>1.040132652526162</v>
       </c>
       <c r="L15">
-        <v>1.011385536933193</v>
+        <v>1.023768124474475</v>
       </c>
       <c r="M15">
-        <v>1.03110974017868</v>
+        <v>1.042272661334446</v>
       </c>
       <c r="N15">
-        <v>1.019179573262582</v>
+        <v>1.032222957499124</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9928436818184938</v>
+        <v>1.004536543312377</v>
       </c>
       <c r="D16">
-        <v>1.018454883916344</v>
+        <v>1.028053275932362</v>
       </c>
       <c r="E16">
-        <v>1.000464533150081</v>
+        <v>1.011398202273322</v>
       </c>
       <c r="F16">
-        <v>1.020776240640061</v>
+        <v>1.030567977285852</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047601076215158</v>
+        <v>1.052107146353519</v>
       </c>
       <c r="J16">
-        <v>1.02126643118503</v>
+        <v>1.032495107466196</v>
       </c>
       <c r="K16">
-        <v>1.032463013526805</v>
+        <v>1.041898596243204</v>
       </c>
       <c r="L16">
-        <v>1.014788752270701</v>
+        <v>1.025528581321086</v>
       </c>
       <c r="M16">
-        <v>1.034744632482051</v>
+        <v>1.044371288669949</v>
       </c>
       <c r="N16">
-        <v>1.02271674665821</v>
+        <v>1.033961368947642</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9958203677078667</v>
+        <v>1.006354072924019</v>
       </c>
       <c r="D17">
-        <v>1.020819786801043</v>
+        <v>1.029481975161177</v>
       </c>
       <c r="E17">
-        <v>1.002926856147353</v>
+        <v>1.012833052752233</v>
       </c>
       <c r="F17">
-        <v>1.023372165453298</v>
+        <v>1.032205861268938</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048763867763115</v>
+        <v>1.052804237029724</v>
       </c>
       <c r="J17">
-        <v>1.023440115986396</v>
+        <v>1.033570244474945</v>
       </c>
       <c r="K17">
-        <v>1.034472358479494</v>
+        <v>1.042992097879128</v>
       </c>
       <c r="L17">
-        <v>1.016883760855895</v>
+        <v>1.026619752276315</v>
       </c>
       <c r="M17">
-        <v>1.036982441003403</v>
+        <v>1.045671824183278</v>
       </c>
       <c r="N17">
-        <v>1.024893518341319</v>
+        <v>1.035038032774263</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9975370711813759</v>
+        <v>1.007406405920755</v>
       </c>
       <c r="D18">
-        <v>1.02218429222932</v>
+        <v>1.030309616692306</v>
       </c>
       <c r="E18">
-        <v>1.004347864018511</v>
+        <v>1.013664632914305</v>
       </c>
       <c r="F18">
-        <v>1.02487024336069</v>
+        <v>1.033154842572872</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049433094987888</v>
+        <v>1.053206815013998</v>
       </c>
       <c r="J18">
-        <v>1.024693448996148</v>
+        <v>1.034192498922398</v>
       </c>
       <c r="K18">
-        <v>1.035630776340976</v>
+        <v>1.043624901649663</v>
       </c>
       <c r="L18">
-        <v>1.018091967343259</v>
+        <v>1.027251593174918</v>
       </c>
       <c r="M18">
-        <v>1.038273062021273</v>
+        <v>1.046424810758672</v>
       </c>
       <c r="N18">
-        <v>1.026148631227704</v>
+        <v>1.035661170894405</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9981191818317642</v>
+        <v>1.007763919740344</v>
       </c>
       <c r="D19">
-        <v>1.022647079306039</v>
+        <v>1.030590867546168</v>
       </c>
       <c r="E19">
-        <v>1.004829864795787</v>
+        <v>1.013947285950714</v>
       </c>
       <c r="F19">
-        <v>1.025378380455684</v>
+        <v>1.033477354872688</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049659785095908</v>
+        <v>1.053343408359331</v>
       </c>
       <c r="J19">
-        <v>1.025118389006177</v>
+        <v>1.034403858294175</v>
       </c>
       <c r="K19">
-        <v>1.036023508021805</v>
+        <v>1.043839830555889</v>
       </c>
       <c r="L19">
-        <v>1.018501647165879</v>
+        <v>1.0274662606787</v>
       </c>
       <c r="M19">
-        <v>1.038710696979387</v>
+        <v>1.04668062276421</v>
       </c>
       <c r="N19">
-        <v>1.026574174701289</v>
+        <v>1.035872830420734</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9955030372773759</v>
+        <v>1.006159880597648</v>
       </c>
       <c r="D20">
-        <v>1.020567609439069</v>
+        <v>1.029329281233415</v>
       </c>
       <c r="E20">
-        <v>1.002664260287648</v>
+        <v>1.012679662511809</v>
       </c>
       <c r="F20">
-        <v>1.023095324789758</v>
+        <v>1.03203079402283</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048640050110249</v>
+        <v>1.05272986362896</v>
       </c>
       <c r="J20">
-        <v>1.023208416722121</v>
+        <v>1.033455397030252</v>
       </c>
       <c r="K20">
-        <v>1.034258192880081</v>
+        <v>1.042875296897245</v>
       </c>
       <c r="L20">
-        <v>1.016660423110283</v>
+        <v>1.026503160249989</v>
       </c>
       <c r="M20">
-        <v>1.036743873709926</v>
+        <v>1.045532870459194</v>
       </c>
       <c r="N20">
-        <v>1.024661490037512</v>
+        <v>1.034923022233026</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9867621440124392</v>
+        <v>1.000851877183423</v>
       </c>
       <c r="D21">
-        <v>1.013627724144456</v>
+        <v>1.025159869268381</v>
       </c>
       <c r="E21">
-        <v>0.9954403913500056</v>
+        <v>1.008494766369367</v>
       </c>
       <c r="F21">
-        <v>1.015479305577738</v>
+        <v>1.027251930816584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045216641988754</v>
+        <v>1.050687345811141</v>
       </c>
       <c r="J21">
-        <v>1.016823953915932</v>
+        <v>1.030314024889609</v>
       </c>
       <c r="K21">
-        <v>1.02835543425017</v>
+        <v>1.039679759361988</v>
       </c>
       <c r="L21">
-        <v>1.010508664890007</v>
+        <v>1.023316970381592</v>
       </c>
       <c r="M21">
-        <v>1.030173234534307</v>
+        <v>1.041734768439253</v>
       </c>
       <c r="N21">
-        <v>1.018267960561831</v>
+        <v>1.031777188983622</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9810719209961827</v>
+        <v>0.9974398001741503</v>
       </c>
       <c r="D22">
-        <v>1.009116898588733</v>
+        <v>1.022484157445818</v>
       </c>
       <c r="E22">
-        <v>0.9907475581469732</v>
+        <v>1.005812544476972</v>
       </c>
       <c r="F22">
-        <v>1.010531475140801</v>
+        <v>1.024186468857136</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042975901723892</v>
+        <v>1.04936521187182</v>
       </c>
       <c r="J22">
-        <v>1.012665968092776</v>
+        <v>1.028292775614322</v>
       </c>
       <c r="K22">
-        <v>1.024509885928104</v>
+        <v>1.037622981189139</v>
       </c>
       <c r="L22">
-        <v>1.006504563355688</v>
+        <v>1.021269726507599</v>
       </c>
       <c r="M22">
-        <v>1.025897149159816</v>
+        <v>1.03929354631484</v>
       </c>
       <c r="N22">
-        <v>1.014104069921877</v>
+        <v>1.029753069302525</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9841078044042078</v>
+        <v>0.9992559137364558</v>
       </c>
       <c r="D23">
-        <v>1.011522832173775</v>
+        <v>1.023907891608741</v>
       </c>
       <c r="E23">
-        <v>0.9932503343084056</v>
+        <v>1.007239420678888</v>
       </c>
       <c r="F23">
-        <v>1.013170266618739</v>
+        <v>1.025817463816958</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044172501329031</v>
+        <v>1.050069779085068</v>
       </c>
       <c r="J23">
-        <v>1.014884492771837</v>
+        <v>1.029368773225759</v>
       </c>
       <c r="K23">
-        <v>1.026561817684501</v>
+        <v>1.03871795340378</v>
       </c>
       <c r="L23">
-        <v>1.008640757152663</v>
+        <v>1.022359293508245</v>
       </c>
       <c r="M23">
-        <v>1.028178379922934</v>
+        <v>1.040592868975251</v>
       </c>
       <c r="N23">
-        <v>1.016325745160451</v>
+        <v>1.030830594953988</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9956464854520642</v>
+        <v>1.006247651813042</v>
       </c>
       <c r="D24">
-        <v>1.020681603448097</v>
+        <v>1.029398294614352</v>
       </c>
       <c r="E24">
-        <v>1.002782962953596</v>
+        <v>1.012748989443401</v>
       </c>
       <c r="F24">
-        <v>1.023220466712288</v>
+        <v>1.032109919021525</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048696025744278</v>
+        <v>1.052763482182855</v>
       </c>
       <c r="J24">
-        <v>1.02331315644574</v>
+        <v>1.033507306624719</v>
       </c>
       <c r="K24">
-        <v>1.034355006997219</v>
+        <v>1.042928089713024</v>
       </c>
       <c r="L24">
-        <v>1.016761382269912</v>
+        <v>1.026555857423141</v>
       </c>
       <c r="M24">
-        <v>1.036851717153348</v>
+        <v>1.045595674923305</v>
       </c>
       <c r="N24">
-        <v>1.024766378503552</v>
+        <v>1.034975005545071</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008276631272719</v>
+        <v>1.014057076933094</v>
       </c>
       <c r="D25">
-        <v>1.030730284756193</v>
+        <v>1.035547501805123</v>
       </c>
       <c r="E25">
-        <v>1.01325310200249</v>
+        <v>1.018934167312447</v>
       </c>
       <c r="F25">
-        <v>1.034257848156179</v>
+        <v>1.039163632117998</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053594623107942</v>
+        <v>1.055732283504104</v>
       </c>
       <c r="J25">
-        <v>1.03252862853399</v>
+        <v>1.038120451654782</v>
       </c>
       <c r="K25">
-        <v>1.042869572817034</v>
+        <v>1.047617958541803</v>
       </c>
       <c r="L25">
-        <v>1.025649106247902</v>
+        <v>1.031245496854532</v>
       </c>
       <c r="M25">
-        <v>1.046346652727191</v>
+        <v>1.051182949246475</v>
       </c>
       <c r="N25">
-        <v>1.033994937619197</v>
+        <v>1.039594701770211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020061952569123</v>
+        <v>1.011345987181921</v>
       </c>
       <c r="D2">
-        <v>1.04028713869119</v>
+        <v>1.031677524913343</v>
       </c>
       <c r="E2">
-        <v>1.023713255880959</v>
+        <v>1.016267705610062</v>
       </c>
       <c r="F2">
-        <v>1.044605911974865</v>
+        <v>1.038034645716478</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057981572462838</v>
+        <v>1.052496313759376</v>
       </c>
       <c r="J2">
-        <v>1.041658735316654</v>
+        <v>1.033192557760519</v>
       </c>
       <c r="K2">
-        <v>1.05121235405419</v>
+        <v>1.042712500376441</v>
       </c>
       <c r="L2">
-        <v>1.03485182417376</v>
+        <v>1.027504963785491</v>
       </c>
       <c r="M2">
-        <v>1.055476918654526</v>
+        <v>1.048988357521481</v>
       </c>
       <c r="N2">
-        <v>1.04313801020073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01495449474347</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047343357508274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024301835711353</v>
+        <v>1.014716267921014</v>
       </c>
       <c r="D3">
-        <v>1.043639307578515</v>
+        <v>1.034055250526454</v>
       </c>
       <c r="E3">
-        <v>1.027100174477235</v>
+        <v>1.018887105842605</v>
       </c>
       <c r="F3">
-        <v>1.048458441904195</v>
+        <v>1.040480071643798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059549616908036</v>
+        <v>1.053434748655766</v>
       </c>
       <c r="J3">
-        <v>1.044151239660032</v>
+        <v>1.034813636554417</v>
       </c>
       <c r="K3">
-        <v>1.053742678886454</v>
+        <v>1.044270169628046</v>
       </c>
       <c r="L3">
-        <v>1.037397659264557</v>
+        <v>1.029283894175853</v>
       </c>
       <c r="M3">
-        <v>1.058506674350178</v>
+        <v>1.050619932334428</v>
       </c>
       <c r="N3">
-        <v>1.04563405418617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015497815617225</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048634626344022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026992661426545</v>
+        <v>1.016860728834524</v>
       </c>
       <c r="D4">
-        <v>1.045769070423547</v>
+        <v>1.035570873455093</v>
       </c>
       <c r="E4">
-        <v>1.029255206582648</v>
+        <v>1.020559274286365</v>
       </c>
       <c r="F4">
-        <v>1.050907758069459</v>
+        <v>1.04204150040496</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060535221820879</v>
+        <v>1.054022766389048</v>
       </c>
       <c r="J4">
-        <v>1.045730218206805</v>
+        <v>1.035842752586121</v>
       </c>
       <c r="K4">
-        <v>1.05534478644231</v>
+        <v>1.045258138140238</v>
       </c>
       <c r="L4">
-        <v>1.03901291711155</v>
+        <v>1.030415741136187</v>
       </c>
       <c r="M4">
-        <v>1.060428271530108</v>
+        <v>1.051657678106929</v>
       </c>
       <c r="N4">
-        <v>1.047215275063591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015842674800638</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049455922957054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028111690937802</v>
+        <v>1.017753786099359</v>
       </c>
       <c r="D5">
-        <v>1.046655287679398</v>
+        <v>1.036202667387749</v>
       </c>
       <c r="E5">
-        <v>1.030152707927386</v>
+        <v>1.021256934011533</v>
       </c>
       <c r="F5">
-        <v>1.051927353225913</v>
+        <v>1.042693025813425</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06094277785763</v>
+        <v>1.054265430129493</v>
       </c>
       <c r="J5">
-        <v>1.046386145165025</v>
+        <v>1.03627073807266</v>
       </c>
       <c r="K5">
-        <v>1.056010116446724</v>
+        <v>1.045668789834957</v>
       </c>
       <c r="L5">
-        <v>1.039684513552441</v>
+        <v>1.030887058170176</v>
       </c>
       <c r="M5">
-        <v>1.061227072739052</v>
+        <v>1.052089721161018</v>
       </c>
       <c r="N5">
-        <v>1.047872133513327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015986078098272</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049797851808108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028298877556952</v>
+        <v>1.017903243802633</v>
       </c>
       <c r="D6">
-        <v>1.046803559598907</v>
+        <v>1.036308436487008</v>
       </c>
       <c r="E6">
-        <v>1.030302913095101</v>
+        <v>1.021373765846906</v>
       </c>
       <c r="F6">
-        <v>1.052097964765132</v>
+        <v>1.042802135643039</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061010814417612</v>
+        <v>1.054305909991662</v>
       </c>
       <c r="J6">
-        <v>1.046495822720221</v>
+        <v>1.036342328381235</v>
       </c>
       <c r="K6">
-        <v>1.056121354062042</v>
+        <v>1.045737467442319</v>
       </c>
       <c r="L6">
-        <v>1.039796846400652</v>
+        <v>1.030965932511353</v>
       </c>
       <c r="M6">
-        <v>1.061360672435183</v>
+        <v>1.05216201765293</v>
       </c>
       <c r="N6">
-        <v>1.047981966823233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016010064602398</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049855068906175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02700766133143</v>
+        <v>1.016872694913989</v>
       </c>
       <c r="D7">
-        <v>1.045780947637694</v>
+        <v>1.035579336483011</v>
       </c>
       <c r="E7">
-        <v>1.029267231985666</v>
+        <v>1.020568617185145</v>
       </c>
       <c r="F7">
-        <v>1.050921421206811</v>
+        <v>1.042050225225556</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060540694091203</v>
+        <v>1.054026026629432</v>
       </c>
       <c r="J7">
-        <v>1.045739013389081</v>
+        <v>1.035848489518842</v>
       </c>
       <c r="K7">
-        <v>1.055353708525793</v>
+        <v>1.045263643606393</v>
       </c>
       <c r="L7">
-        <v>1.039021920037073</v>
+        <v>1.030422056500597</v>
       </c>
       <c r="M7">
-        <v>1.060438980322923</v>
+        <v>1.051663467582355</v>
       </c>
       <c r="N7">
-        <v>1.047224082736035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015844597114153</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049460504882652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021506000275387</v>
+        <v>1.012492651001527</v>
       </c>
       <c r="D8">
-        <v>1.041428330898849</v>
+        <v>1.032485905148284</v>
       </c>
       <c r="E8">
-        <v>1.024865612018377</v>
+        <v>1.017157735336932</v>
       </c>
       <c r="F8">
-        <v>1.045917104638975</v>
+        <v>1.038865489192766</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05851760663312</v>
+        <v>1.052817477530038</v>
       </c>
       <c r="J8">
-        <v>1.042508234298497</v>
+        <v>1.033744571749555</v>
       </c>
       <c r="K8">
-        <v>1.052074913541306</v>
+        <v>1.043243104624042</v>
       </c>
       <c r="L8">
-        <v>1.035718975989369</v>
+        <v>1.028110203488169</v>
       </c>
       <c r="M8">
-        <v>1.056509047387386</v>
+        <v>1.049543531653854</v>
       </c>
       <c r="N8">
-        <v>1.043988715568567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015139519392571</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047782736360063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011388451549166</v>
+        <v>1.004485648026598</v>
       </c>
       <c r="D9">
-        <v>1.033444282188983</v>
+        <v>1.026853982076594</v>
       </c>
       <c r="E9">
-        <v>1.016816805271564</v>
+        <v>1.010967030513361</v>
       </c>
       <c r="F9">
-        <v>1.036750214146042</v>
+        <v>1.033088178757406</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054722970666089</v>
+        <v>1.050537871986495</v>
       </c>
       <c r="J9">
-        <v>1.03654536587755</v>
+        <v>1.029880994834884</v>
       </c>
       <c r="K9">
-        <v>1.0460170911851</v>
+        <v>1.039525894814603</v>
       </c>
       <c r="L9">
-        <v>1.029642808941643</v>
+        <v>1.023884646379518</v>
       </c>
       <c r="M9">
-        <v>1.049273912175977</v>
+        <v>1.045666301666711</v>
       </c>
       <c r="N9">
-        <v>1.038017379190511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013844326092128</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044714192998123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004330074926427</v>
+        <v>0.9989813664386546</v>
       </c>
       <c r="D10">
-        <v>1.027891039075978</v>
+        <v>1.023022844697368</v>
       </c>
       <c r="E10">
-        <v>1.011235317933844</v>
+        <v>1.006748781912879</v>
       </c>
       <c r="F10">
-        <v>1.030382007720334</v>
+        <v>1.029222330883435</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052027818560187</v>
+        <v>1.048947076520977</v>
       </c>
       <c r="J10">
-        <v>1.032372941899092</v>
+        <v>1.027235457559348</v>
       </c>
       <c r="K10">
-        <v>1.041774333283003</v>
+        <v>1.036988495027072</v>
       </c>
       <c r="L10">
-        <v>1.025404635683867</v>
+        <v>1.020997244837185</v>
       </c>
       <c r="M10">
-        <v>1.044223549591276</v>
+        <v>1.043083278252592</v>
       </c>
       <c r="N10">
-        <v>1.03383902989142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012961307026748</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042721087076074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00119242851088</v>
+        <v>0.9968854346761203</v>
       </c>
       <c r="D11">
-        <v>1.025427119466731</v>
+        <v>1.021746775691606</v>
       </c>
       <c r="E11">
-        <v>1.008762810235569</v>
+        <v>1.005195704901135</v>
       </c>
       <c r="F11">
-        <v>1.027558164876103</v>
+        <v>1.028341043937169</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050818925665748</v>
+        <v>1.048498822150972</v>
       </c>
       <c r="J11">
-        <v>1.030515685062761</v>
+        <v>1.026388359683403</v>
       </c>
       <c r="K11">
-        <v>1.039884936751204</v>
+        <v>1.036269911016777</v>
       </c>
       <c r="L11">
-        <v>1.02352134344514</v>
+        <v>1.020020298529323</v>
       </c>
       <c r="M11">
-        <v>1.041978437992004</v>
+        <v>1.042747575147035</v>
       </c>
       <c r="N11">
-        <v>1.031979135537351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012713011255011</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042889415732215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000014111429156</v>
+        <v>0.9962173648147423</v>
       </c>
       <c r="D12">
-        <v>1.024502575100274</v>
+        <v>1.021412016690654</v>
       </c>
       <c r="E12">
-        <v>1.007835632460351</v>
+        <v>1.00472121337025</v>
       </c>
       <c r="F12">
-        <v>1.026498801074332</v>
+        <v>1.028302381098957</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050363357150877</v>
+        <v>1.048420665172009</v>
       </c>
       <c r="J12">
-        <v>1.029817874046163</v>
+        <v>1.026182679813337</v>
       </c>
       <c r="K12">
-        <v>1.03917493314231</v>
+        <v>1.036140180625836</v>
       </c>
       <c r="L12">
-        <v>1.022814238187613</v>
+        <v>1.019758517924431</v>
       </c>
       <c r="M12">
-        <v>1.041135345456685</v>
+        <v>1.042906723229273</v>
       </c>
       <c r="N12">
-        <v>1.03128033354907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012672275184847</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043340151983263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000267456878264</v>
+        <v>0.9966061757224122</v>
       </c>
       <c r="D13">
-        <v>1.024701322485496</v>
+        <v>1.021783220424241</v>
       </c>
       <c r="E13">
-        <v>1.008034919374546</v>
+        <v>1.005045098015034</v>
       </c>
       <c r="F13">
-        <v>1.026726519906368</v>
+        <v>1.028923139026553</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050461377758626</v>
+        <v>1.048629324151201</v>
       </c>
       <c r="J13">
-        <v>1.029967922112609</v>
+        <v>1.026461716788909</v>
       </c>
       <c r="K13">
-        <v>1.039327608098368</v>
+        <v>1.036461983962734</v>
       </c>
       <c r="L13">
-        <v>1.022966262682616</v>
+        <v>1.020032564617529</v>
       </c>
       <c r="M13">
-        <v>1.041316612849768</v>
+        <v>1.043474184759531</v>
       </c>
       <c r="N13">
-        <v>1.031430594700981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012790147761021</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044064327142101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001095294535314</v>
+        <v>0.9973558452686385</v>
       </c>
       <c r="D14">
-        <v>1.025350889299472</v>
+        <v>1.022360982149716</v>
       </c>
       <c r="E14">
-        <v>1.008686350978598</v>
+        <v>1.005632268508283</v>
       </c>
       <c r="F14">
-        <v>1.027470813924291</v>
+        <v>1.029654273551819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050781402924179</v>
+        <v>1.048903768328448</v>
       </c>
       <c r="J14">
-        <v>1.030458167899601</v>
+        <v>1.026874851315351</v>
       </c>
       <c r="K14">
-        <v>1.039826416943581</v>
+        <v>1.036889606957121</v>
       </c>
       <c r="L14">
-        <v>1.023463050272227</v>
+        <v>1.020465574993791</v>
       </c>
       <c r="M14">
-        <v>1.041908936945248</v>
+        <v>1.044054079503151</v>
       </c>
       <c r="N14">
-        <v>1.031921536693222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012943784306881</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044695389353172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001603629386461</v>
+        <v>0.9977715441851477</v>
       </c>
       <c r="D15">
-        <v>1.02574985883898</v>
+        <v>1.022661258505319</v>
       </c>
       <c r="E15">
-        <v>1.009086543524567</v>
+        <v>1.005952359735007</v>
       </c>
       <c r="F15">
-        <v>1.027927996379278</v>
+        <v>1.029989325879219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050977707996966</v>
+        <v>1.049037102094931</v>
       </c>
       <c r="J15">
-        <v>1.030759161260406</v>
+        <v>1.027085672282254</v>
       </c>
       <c r="K15">
-        <v>1.040132652526162</v>
+        <v>1.037098479909747</v>
       </c>
       <c r="L15">
-        <v>1.023768124474475</v>
+        <v>1.020691580871109</v>
       </c>
       <c r="M15">
-        <v>1.042272661334446</v>
+        <v>1.044298099082593</v>
       </c>
       <c r="N15">
-        <v>1.032222957499124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013017467085086</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044925668103333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004536543312377</v>
+        <v>1.000025740331451</v>
       </c>
       <c r="D16">
-        <v>1.028053275932362</v>
+        <v>1.024216754013231</v>
       </c>
       <c r="E16">
-        <v>1.011398202273322</v>
+        <v>1.007669234865149</v>
       </c>
       <c r="F16">
-        <v>1.030567977285852</v>
+        <v>1.031538013426687</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052107146353519</v>
+        <v>1.049688599460793</v>
       </c>
       <c r="J16">
-        <v>1.032495107466196</v>
+        <v>1.028161555029618</v>
       </c>
       <c r="K16">
-        <v>1.041898596243204</v>
+        <v>1.038126677543655</v>
       </c>
       <c r="L16">
-        <v>1.025528581321086</v>
+        <v>1.021865110859533</v>
       </c>
       <c r="M16">
-        <v>1.044371288669949</v>
+        <v>1.045325190526157</v>
       </c>
       <c r="N16">
-        <v>1.033961368947642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013371922878823</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045698902840333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006354072924019</v>
+        <v>1.001363939260454</v>
       </c>
       <c r="D17">
-        <v>1.029481975161177</v>
+        <v>1.025108051727157</v>
       </c>
       <c r="E17">
-        <v>1.012833052752233</v>
+        <v>1.008681424067484</v>
       </c>
       <c r="F17">
-        <v>1.032205861268938</v>
+        <v>1.032338609479072</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052804237029724</v>
+        <v>1.050041771650661</v>
       </c>
       <c r="J17">
-        <v>1.033570244474945</v>
+        <v>1.028769804009197</v>
       </c>
       <c r="K17">
-        <v>1.042992097879128</v>
+        <v>1.038689716233938</v>
       </c>
       <c r="L17">
-        <v>1.026619752276315</v>
+        <v>1.022538929643158</v>
       </c>
       <c r="M17">
-        <v>1.045671824183278</v>
+        <v>1.045802427915444</v>
       </c>
       <c r="N17">
-        <v>1.035038032774263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01356298694807</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045947580220932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007406405920755</v>
+        <v>1.002032224973642</v>
       </c>
       <c r="D18">
-        <v>1.030309616692306</v>
+        <v>1.025492866880421</v>
       </c>
       <c r="E18">
-        <v>1.013664632914305</v>
+        <v>1.009171696836089</v>
       </c>
       <c r="F18">
-        <v>1.033154842572872</v>
+        <v>1.032527186616881</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053206815013998</v>
+        <v>1.05016054580197</v>
       </c>
       <c r="J18">
-        <v>1.034192498922398</v>
+        <v>1.029018676532393</v>
       </c>
       <c r="K18">
-        <v>1.043624901649663</v>
+        <v>1.038885605488165</v>
       </c>
       <c r="L18">
-        <v>1.027251593174918</v>
+        <v>1.022833970824684</v>
       </c>
       <c r="M18">
-        <v>1.046424810758672</v>
+        <v>1.045807124160714</v>
       </c>
       <c r="N18">
-        <v>1.035661170894405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013625745324068</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045714628237029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007763919740344</v>
+        <v>1.002080950896428</v>
       </c>
       <c r="D19">
-        <v>1.030590867546168</v>
+        <v>1.025404497580808</v>
       </c>
       <c r="E19">
-        <v>1.013947285950714</v>
+        <v>1.009177596604678</v>
       </c>
       <c r="F19">
-        <v>1.033477354872688</v>
+        <v>1.032144503168248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053343408359331</v>
+        <v>1.05005987446011</v>
       </c>
       <c r="J19">
-        <v>1.034403858294175</v>
+        <v>1.028931403322681</v>
       </c>
       <c r="K19">
-        <v>1.043839830555889</v>
+        <v>1.038736393752356</v>
       </c>
       <c r="L19">
-        <v>1.0274662606787</v>
+        <v>1.022776067194863</v>
       </c>
       <c r="M19">
-        <v>1.04668062276421</v>
+        <v>1.045368830365648</v>
       </c>
       <c r="N19">
-        <v>1.035872830420734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013570068603415</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045044145080356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006159880597648</v>
+        <v>1.000407158675991</v>
       </c>
       <c r="D20">
-        <v>1.029329281233415</v>
+        <v>1.024014904747674</v>
       </c>
       <c r="E20">
-        <v>1.012679662511809</v>
+        <v>1.0078392715395</v>
       </c>
       <c r="F20">
-        <v>1.03203079402283</v>
+        <v>1.030224936239058</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05272986362896</v>
+        <v>1.049363373207091</v>
       </c>
       <c r="J20">
-        <v>1.033455397030252</v>
+        <v>1.027922394056646</v>
       </c>
       <c r="K20">
-        <v>1.042875296897245</v>
+        <v>1.037648227814916</v>
       </c>
       <c r="L20">
-        <v>1.026503160249989</v>
+        <v>1.02174566331324</v>
       </c>
       <c r="M20">
-        <v>1.045532870459194</v>
+        <v>1.043756351559433</v>
       </c>
       <c r="N20">
-        <v>1.034923022233026</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013190771388466</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043243255483369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000851877183423</v>
+        <v>0.9962165716844118</v>
       </c>
       <c r="D21">
-        <v>1.025159869268381</v>
+        <v>1.021070069948057</v>
       </c>
       <c r="E21">
-        <v>1.008494766369367</v>
+        <v>1.004630716391663</v>
       </c>
       <c r="F21">
-        <v>1.027251930816584</v>
+        <v>1.027179703223984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050687345811141</v>
+        <v>1.048104301245474</v>
       </c>
       <c r="J21">
-        <v>1.030314024889609</v>
+        <v>1.025873332603144</v>
       </c>
       <c r="K21">
-        <v>1.039679759361988</v>
+        <v>1.035662964144221</v>
       </c>
       <c r="L21">
-        <v>1.023316970381592</v>
+        <v>1.01952488632375</v>
       </c>
       <c r="M21">
-        <v>1.041734768439253</v>
+        <v>1.041663816806336</v>
       </c>
       <c r="N21">
-        <v>1.031777188983622</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012500521688634</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041546506087746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9974398001741503</v>
+        <v>0.9935547659084012</v>
       </c>
       <c r="D22">
-        <v>1.022484157445818</v>
+        <v>1.019215436156297</v>
       </c>
       <c r="E22">
-        <v>1.005812544476972</v>
+        <v>1.002602849661638</v>
       </c>
       <c r="F22">
-        <v>1.024186468857136</v>
+        <v>1.025289914030199</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04936521187182</v>
+        <v>1.047306434271557</v>
       </c>
       <c r="J22">
-        <v>1.028292775614322</v>
+        <v>1.024580476657746</v>
       </c>
       <c r="K22">
-        <v>1.037622981189139</v>
+        <v>1.034415606491517</v>
       </c>
       <c r="L22">
-        <v>1.021269726507599</v>
+        <v>1.01812291933851</v>
       </c>
       <c r="M22">
-        <v>1.03929354631484</v>
+        <v>1.04037648685708</v>
       </c>
       <c r="N22">
-        <v>1.029753069302525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012066988573506</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040527671504078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9992559137364558</v>
+        <v>0.9949705414330769</v>
       </c>
       <c r="D23">
-        <v>1.023907891608741</v>
+        <v>1.020201445779485</v>
       </c>
       <c r="E23">
-        <v>1.007239420678888</v>
+        <v>1.003680741279852</v>
       </c>
       <c r="F23">
-        <v>1.025817463816958</v>
+        <v>1.026294338224236</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050069779085068</v>
+        <v>1.047731616517141</v>
       </c>
       <c r="J23">
-        <v>1.029368773225759</v>
+        <v>1.025268269816153</v>
       </c>
       <c r="K23">
-        <v>1.03871795340378</v>
+        <v>1.035079257853172</v>
       </c>
       <c r="L23">
-        <v>1.022359293508245</v>
+        <v>1.018868503024529</v>
       </c>
       <c r="M23">
-        <v>1.040592868975251</v>
+        <v>1.041061114804644</v>
       </c>
       <c r="N23">
-        <v>1.030830594953988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012297626711687</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041069508397303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006247651813042</v>
+        <v>1.000442017113319</v>
       </c>
       <c r="D24">
-        <v>1.029398294614352</v>
+        <v>1.024021428340918</v>
       </c>
       <c r="E24">
-        <v>1.012748989443401</v>
+        <v>1.007861511255454</v>
       </c>
       <c r="F24">
-        <v>1.032109919021525</v>
+        <v>1.030191697347169</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052763482182855</v>
+        <v>1.049356873639187</v>
       </c>
       <c r="J24">
-        <v>1.033507306624719</v>
+        <v>1.027923062560687</v>
       </c>
       <c r="K24">
-        <v>1.042928089713024</v>
+        <v>1.037639436116816</v>
       </c>
       <c r="L24">
-        <v>1.026555857423141</v>
+        <v>1.021751962286789</v>
       </c>
       <c r="M24">
-        <v>1.045595674923305</v>
+        <v>1.043708576057985</v>
       </c>
       <c r="N24">
-        <v>1.034975005545071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013187837726997</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043164791787057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014057076933094</v>
+        <v>1.006591410190006</v>
       </c>
       <c r="D25">
-        <v>1.035547501805123</v>
+        <v>1.028332183685634</v>
       </c>
       <c r="E25">
-        <v>1.018934167312447</v>
+        <v>1.012589715008237</v>
       </c>
       <c r="F25">
-        <v>1.039163632117998</v>
+        <v>1.034602100607115</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055732283504104</v>
+        <v>1.05114539512921</v>
       </c>
       <c r="J25">
-        <v>1.038120451654782</v>
+        <v>1.030898965208384</v>
       </c>
       <c r="K25">
-        <v>1.047617958541803</v>
+        <v>1.040506041945115</v>
       </c>
       <c r="L25">
-        <v>1.031245496854532</v>
+        <v>1.024995685715638</v>
       </c>
       <c r="M25">
-        <v>1.051182949246475</v>
+        <v>1.046686001854967</v>
       </c>
       <c r="N25">
-        <v>1.039594701770211</v>
+        <v>1.014185620772792</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045521212201438</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011345987181921</v>
+        <v>1.010646019424925</v>
       </c>
       <c r="D2">
-        <v>1.031677524913343</v>
+        <v>1.030350147998828</v>
       </c>
       <c r="E2">
-        <v>1.016267705610062</v>
+        <v>1.01566931694634</v>
       </c>
       <c r="F2">
-        <v>1.038034645716478</v>
+        <v>1.037139318185192</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052496313759376</v>
+        <v>1.051809227001246</v>
       </c>
       <c r="J2">
-        <v>1.033192557760519</v>
+        <v>1.032512906461967</v>
       </c>
       <c r="K2">
-        <v>1.042712500376441</v>
+        <v>1.041402249762085</v>
       </c>
       <c r="L2">
-        <v>1.027504963785491</v>
+        <v>1.02691458560287</v>
       </c>
       <c r="M2">
-        <v>1.048988357521481</v>
+        <v>1.048104399770393</v>
       </c>
       <c r="N2">
-        <v>1.01495449474347</v>
+        <v>1.015816689065588</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047343357508274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046643770444544</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023054659357665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014716267921014</v>
+        <v>1.013889304857838</v>
       </c>
       <c r="D3">
-        <v>1.034055250526454</v>
+        <v>1.032550715176912</v>
       </c>
       <c r="E3">
-        <v>1.018887105842605</v>
+        <v>1.018177315875901</v>
       </c>
       <c r="F3">
-        <v>1.040480071643798</v>
+        <v>1.039459720427648</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053434748655766</v>
+        <v>1.052646589117372</v>
       </c>
       <c r="J3">
-        <v>1.034813636554417</v>
+        <v>1.034008363827578</v>
       </c>
       <c r="K3">
-        <v>1.044270169628046</v>
+        <v>1.042783378269275</v>
       </c>
       <c r="L3">
-        <v>1.029283894175853</v>
+        <v>1.028582779725568</v>
       </c>
       <c r="M3">
-        <v>1.050619932334428</v>
+        <v>1.04961142481866</v>
       </c>
       <c r="N3">
-        <v>1.015497815617225</v>
+        <v>1.016214619162657</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048634626344022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047836468710176</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02332404226158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016860728834524</v>
+        <v>1.015953658631951</v>
       </c>
       <c r="D4">
-        <v>1.035570873455093</v>
+        <v>1.033954071335605</v>
       </c>
       <c r="E4">
-        <v>1.020559274286365</v>
+        <v>1.019779128029004</v>
       </c>
       <c r="F4">
-        <v>1.04204150040496</v>
+        <v>1.040942034637567</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054022766389048</v>
+        <v>1.053170468201585</v>
       </c>
       <c r="J4">
-        <v>1.035842752586121</v>
+        <v>1.034957888619831</v>
       </c>
       <c r="K4">
-        <v>1.045258138140238</v>
+        <v>1.043659269246971</v>
       </c>
       <c r="L4">
-        <v>1.030415741136187</v>
+        <v>1.029644556334789</v>
       </c>
       <c r="M4">
-        <v>1.051657678106929</v>
+        <v>1.050570214659554</v>
       </c>
       <c r="N4">
-        <v>1.015842674800638</v>
+        <v>1.01646726884966</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049455922957054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.048595278574356</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023492429512235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017753786099359</v>
+        <v>1.016813512395165</v>
       </c>
       <c r="D5">
-        <v>1.036202667387749</v>
+        <v>1.034539215575288</v>
       </c>
       <c r="E5">
-        <v>1.021256934011533</v>
+        <v>1.02044760823166</v>
       </c>
       <c r="F5">
-        <v>1.042693025813425</v>
+        <v>1.041560711733258</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054265430129493</v>
+        <v>1.053386459927757</v>
       </c>
       <c r="J5">
-        <v>1.03627073807266</v>
+        <v>1.035352806080186</v>
       </c>
       <c r="K5">
-        <v>1.045668789834957</v>
+        <v>1.044023303866378</v>
       </c>
       <c r="L5">
-        <v>1.030887058170176</v>
+        <v>1.030086781988773</v>
       </c>
       <c r="M5">
-        <v>1.052089721161018</v>
+        <v>1.050969443119735</v>
       </c>
       <c r="N5">
-        <v>1.015986078098272</v>
+        <v>1.016572344944126</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049797851808108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048911237569009</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023561819365764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017903243802633</v>
+        <v>1.016957422250484</v>
       </c>
       <c r="D6">
-        <v>1.036308436487008</v>
+        <v>1.034637183530231</v>
       </c>
       <c r="E6">
-        <v>1.021373765846906</v>
+        <v>1.020559563616343</v>
       </c>
       <c r="F6">
-        <v>1.042802135643039</v>
+        <v>1.04166432986992</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054305909991662</v>
+        <v>1.053422478265317</v>
       </c>
       <c r="J6">
-        <v>1.036342328381235</v>
+        <v>1.035418866735333</v>
       </c>
       <c r="K6">
-        <v>1.045737467442319</v>
+        <v>1.044084183151284</v>
       </c>
       <c r="L6">
-        <v>1.030965932511353</v>
+        <v>1.030160792868879</v>
       </c>
       <c r="M6">
-        <v>1.05216201765293</v>
+        <v>1.051036251717181</v>
       </c>
       <c r="N6">
-        <v>1.016010064602398</v>
+        <v>1.016589921536711</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049855068906175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048964111484946</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023573388618075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016872694913989</v>
+        <v>1.015971885017274</v>
       </c>
       <c r="D7">
-        <v>1.035579336483011</v>
+        <v>1.033966939658518</v>
       </c>
       <c r="E7">
-        <v>1.020568617185145</v>
+        <v>1.019794064889695</v>
       </c>
       <c r="F7">
-        <v>1.042050225225556</v>
+        <v>1.040954458509369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054026026629432</v>
+        <v>1.053176985937428</v>
       </c>
       <c r="J7">
-        <v>1.035848489518842</v>
+        <v>1.034969723680847</v>
       </c>
       <c r="K7">
-        <v>1.045263643606393</v>
+        <v>1.043669124736547</v>
       </c>
       <c r="L7">
-        <v>1.030422056500597</v>
+        <v>1.029656398168017</v>
       </c>
       <c r="M7">
-        <v>1.051663467582355</v>
+        <v>1.050579658531024</v>
       </c>
       <c r="N7">
-        <v>1.015844597114153</v>
+        <v>1.016496205005048</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049460504882652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048602752682674</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023494889731821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012492651001527</v>
+        <v>1.011769890231198</v>
       </c>
       <c r="D8">
-        <v>1.032485905148284</v>
+        <v>1.031113587725947</v>
       </c>
       <c r="E8">
-        <v>1.017157735336932</v>
+        <v>1.016539706240085</v>
       </c>
       <c r="F8">
-        <v>1.038865489192766</v>
+        <v>1.037940231688909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052817477530038</v>
+        <v>1.052107027884705</v>
       </c>
       <c r="J8">
-        <v>1.033744571749555</v>
+        <v>1.033042096094125</v>
       </c>
       <c r="K8">
-        <v>1.043243104624042</v>
+        <v>1.041887974339101</v>
       </c>
       <c r="L8">
-        <v>1.028110203488169</v>
+        <v>1.027500202190317</v>
       </c>
       <c r="M8">
-        <v>1.049543531653854</v>
+        <v>1.048629679528051</v>
       </c>
       <c r="N8">
-        <v>1.015139519392571</v>
+        <v>1.016035876257334</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047782736360063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047059490532425</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023151646481571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004485648026598</v>
+        <v>1.004071960211824</v>
       </c>
       <c r="D9">
-        <v>1.026853982076594</v>
+        <v>1.025907594415636</v>
       </c>
       <c r="E9">
-        <v>1.010967030513361</v>
+        <v>1.010619557076939</v>
       </c>
       <c r="F9">
-        <v>1.033088178757406</v>
+        <v>1.032464493155776</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050537871986495</v>
+        <v>1.050070171369634</v>
       </c>
       <c r="J9">
-        <v>1.029880994834884</v>
+        <v>1.029481741967797</v>
       </c>
       <c r="K9">
-        <v>1.039525894814603</v>
+        <v>1.038593872011996</v>
       </c>
       <c r="L9">
-        <v>1.023884646379518</v>
+        <v>1.023542657376214</v>
       </c>
       <c r="M9">
-        <v>1.045666301666711</v>
+        <v>1.045051934179066</v>
       </c>
       <c r="N9">
-        <v>1.013844326092128</v>
+        <v>1.015097907570056</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044714192998123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044227964983278</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022495732676194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9989813664386546</v>
+        <v>0.9988109647686096</v>
       </c>
       <c r="D10">
-        <v>1.023022844697368</v>
+        <v>1.022390418768701</v>
       </c>
       <c r="E10">
-        <v>1.006748781912879</v>
+        <v>1.006613874060484</v>
       </c>
       <c r="F10">
-        <v>1.029222330883435</v>
+        <v>1.028824186889285</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048947076520977</v>
+        <v>1.048660818199345</v>
       </c>
       <c r="J10">
-        <v>1.027235457559348</v>
+        <v>1.027071837846288</v>
       </c>
       <c r="K10">
-        <v>1.036988495027072</v>
+        <v>1.036366842304135</v>
       </c>
       <c r="L10">
-        <v>1.020997244837185</v>
+        <v>1.020864731016726</v>
       </c>
       <c r="M10">
-        <v>1.043083278252592</v>
+        <v>1.04269180962147</v>
       </c>
       <c r="N10">
-        <v>1.012961307026748</v>
+        <v>1.014576055879247</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042721087076074</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042411285910559</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022047192464025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9968854346761203</v>
+        <v>0.9968278020523469</v>
       </c>
       <c r="D11">
-        <v>1.021746775691606</v>
+        <v>1.021237878151724</v>
       </c>
       <c r="E11">
-        <v>1.005195704901135</v>
+        <v>1.005158081494852</v>
       </c>
       <c r="F11">
-        <v>1.028341043937169</v>
+        <v>1.028035134638196</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048498822150972</v>
+        <v>1.048287791961645</v>
       </c>
       <c r="J11">
-        <v>1.026388359683403</v>
+        <v>1.026333146223523</v>
       </c>
       <c r="K11">
-        <v>1.036269911016777</v>
+        <v>1.0357700933989</v>
       </c>
       <c r="L11">
-        <v>1.020020298529323</v>
+        <v>1.019983375143303</v>
       </c>
       <c r="M11">
-        <v>1.042747575147035</v>
+        <v>1.042447032257318</v>
       </c>
       <c r="N11">
-        <v>1.012713011255011</v>
+        <v>1.014631420359315</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042889415732215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042651689989873</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021966308611371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9962173648147423</v>
+        <v>0.9961905661383835</v>
       </c>
       <c r="D12">
-        <v>1.021412016690654</v>
+        <v>1.020934157069969</v>
       </c>
       <c r="E12">
-        <v>1.00472121337025</v>
+        <v>1.004709044313468</v>
       </c>
       <c r="F12">
-        <v>1.028302381098957</v>
+        <v>1.028020240130079</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048420665172009</v>
+        <v>1.048229138817598</v>
       </c>
       <c r="J12">
-        <v>1.026182679813337</v>
+        <v>1.026157027669621</v>
       </c>
       <c r="K12">
-        <v>1.036140180625836</v>
+        <v>1.035670988899865</v>
       </c>
       <c r="L12">
-        <v>1.019758517924431</v>
+        <v>1.019746579156149</v>
       </c>
       <c r="M12">
-        <v>1.042906723229273</v>
+        <v>1.042629610104294</v>
       </c>
       <c r="N12">
-        <v>1.012672275184847</v>
+        <v>1.014704769896654</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043340151983263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043121032407726</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021974364521657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9966061757224122</v>
+        <v>0.9965402240838224</v>
       </c>
       <c r="D13">
-        <v>1.021783220424241</v>
+        <v>1.021260488461886</v>
       </c>
       <c r="E13">
-        <v>1.005045098015034</v>
+        <v>1.004997134700418</v>
       </c>
       <c r="F13">
-        <v>1.028923139026553</v>
+        <v>1.02860818302192</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048629324151201</v>
+        <v>1.04841099903704</v>
       </c>
       <c r="J13">
-        <v>1.026461716788909</v>
+        <v>1.02639857347001</v>
       </c>
       <c r="K13">
-        <v>1.036461983962734</v>
+        <v>1.035948693774839</v>
       </c>
       <c r="L13">
-        <v>1.020032564617529</v>
+        <v>1.01998550519961</v>
       </c>
       <c r="M13">
-        <v>1.043474184759531</v>
+        <v>1.043164814140127</v>
       </c>
       <c r="N13">
-        <v>1.012790147761021</v>
+        <v>1.014762682152402</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044064327142101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043819761833354</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022052561750726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9973558452686385</v>
+        <v>0.9972317342931091</v>
       </c>
       <c r="D14">
-        <v>1.022360982149716</v>
+        <v>1.021773325467349</v>
       </c>
       <c r="E14">
-        <v>1.005632268508283</v>
+        <v>1.005532504470825</v>
       </c>
       <c r="F14">
-        <v>1.029654273551819</v>
+        <v>1.02929143229428</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048903768328448</v>
+        <v>1.048646261490885</v>
       </c>
       <c r="J14">
-        <v>1.026874851315351</v>
+        <v>1.026755950915309</v>
       </c>
       <c r="K14">
-        <v>1.036889606957121</v>
+        <v>1.036312433795819</v>
       </c>
       <c r="L14">
-        <v>1.020465574993791</v>
+        <v>1.020367667641859</v>
       </c>
       <c r="M14">
-        <v>1.044054079503151</v>
+        <v>1.043697591078212</v>
       </c>
       <c r="N14">
-        <v>1.012943784306881</v>
+        <v>1.014797048098017</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044695389353172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04441361404527</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022138727412926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9977715441851477</v>
+        <v>0.9976182937737931</v>
       </c>
       <c r="D15">
-        <v>1.022661258505319</v>
+        <v>1.022041189029507</v>
       </c>
       <c r="E15">
-        <v>1.005952359735007</v>
+        <v>1.005826947069298</v>
       </c>
       <c r="F15">
-        <v>1.029989325879219</v>
+        <v>1.029602524583858</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049037102094931</v>
+        <v>1.048759983433436</v>
       </c>
       <c r="J15">
-        <v>1.027085672282254</v>
+        <v>1.026938800403723</v>
       </c>
       <c r="K15">
-        <v>1.037098479909747</v>
+        <v>1.036489388816513</v>
       </c>
       <c r="L15">
-        <v>1.020691580871109</v>
+        <v>1.020568484389127</v>
       </c>
       <c r="M15">
-        <v>1.044298099082593</v>
+        <v>1.043918018570602</v>
       </c>
       <c r="N15">
-        <v>1.013017467085086</v>
+        <v>1.014806217152747</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044925668103333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044625253032025</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022177021905547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000025740331451</v>
+        <v>0.999733409168354</v>
       </c>
       <c r="D16">
-        <v>1.024216754013231</v>
+        <v>1.023439567377086</v>
       </c>
       <c r="E16">
-        <v>1.007669234865149</v>
+        <v>1.00742261571933</v>
       </c>
       <c r="F16">
-        <v>1.031538013426687</v>
+        <v>1.031035281604818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049688599460793</v>
+        <v>1.04931671635479</v>
       </c>
       <c r="J16">
-        <v>1.028161555029618</v>
+        <v>1.027880789064506</v>
       </c>
       <c r="K16">
-        <v>1.038126677543655</v>
+        <v>1.037362654106057</v>
       </c>
       <c r="L16">
-        <v>1.021865110859533</v>
+        <v>1.021622845589858</v>
       </c>
       <c r="M16">
-        <v>1.045325190526157</v>
+        <v>1.044830815592539</v>
       </c>
       <c r="N16">
-        <v>1.013371922878823</v>
+        <v>1.014847055638855</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045698902840333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.045308138581501</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022350046754387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001363939260454</v>
+        <v>1.001002454633584</v>
       </c>
       <c r="D17">
-        <v>1.025108051727157</v>
+        <v>1.024249526401475</v>
       </c>
       <c r="E17">
-        <v>1.008681424067484</v>
+        <v>1.008374981511585</v>
       </c>
       <c r="F17">
-        <v>1.032338609479072</v>
+        <v>1.031776280472521</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050041771650661</v>
+        <v>1.049621381405968</v>
       </c>
       <c r="J17">
-        <v>1.028769804009197</v>
+        <v>1.028422164419643</v>
       </c>
       <c r="K17">
-        <v>1.038689716233938</v>
+        <v>1.037845325610606</v>
       </c>
       <c r="L17">
-        <v>1.022538929643158</v>
+        <v>1.022237743331237</v>
       </c>
       <c r="M17">
-        <v>1.045802427915444</v>
+        <v>1.045249187895523</v>
       </c>
       <c r="N17">
-        <v>1.01356298694807</v>
+        <v>1.01488863394234</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045947580220932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.045510244499006</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022437782294974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002032224973642</v>
+        <v>1.001647711370937</v>
       </c>
       <c r="D18">
-        <v>1.025492866880421</v>
+        <v>1.02460596348205</v>
       </c>
       <c r="E18">
-        <v>1.009171696836089</v>
+        <v>1.00884604018874</v>
       </c>
       <c r="F18">
-        <v>1.032527186616881</v>
+        <v>1.031944040824812</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05016054580197</v>
+        <v>1.049723408383737</v>
       </c>
       <c r="J18">
-        <v>1.029018676532393</v>
+        <v>1.028648614352295</v>
       </c>
       <c r="K18">
-        <v>1.038885605488165</v>
+        <v>1.038013065495415</v>
       </c>
       <c r="L18">
-        <v>1.022833970824684</v>
+        <v>1.022513806695755</v>
       </c>
       <c r="M18">
-        <v>1.045807124160714</v>
+        <v>1.045233254676462</v>
       </c>
       <c r="N18">
-        <v>1.013625745324068</v>
+        <v>1.014893856292638</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045714628237029</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.045260891119015</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022453254902061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002080950896428</v>
+        <v>1.001711396397821</v>
       </c>
       <c r="D19">
-        <v>1.025404497580808</v>
+        <v>1.024535032954167</v>
       </c>
       <c r="E19">
-        <v>1.009177596604678</v>
+        <v>1.008866193290815</v>
       </c>
       <c r="F19">
-        <v>1.032144503168248</v>
+        <v>1.03157375855681</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05005987446011</v>
+        <v>1.049633078254147</v>
       </c>
       <c r="J19">
-        <v>1.028931403322681</v>
+        <v>1.028575654663033</v>
       </c>
       <c r="K19">
-        <v>1.038736393752356</v>
+        <v>1.037880937847423</v>
       </c>
       <c r="L19">
-        <v>1.022776067194863</v>
+        <v>1.022469887703091</v>
       </c>
       <c r="M19">
-        <v>1.045368830365648</v>
+        <v>1.044807124938428</v>
       </c>
       <c r="N19">
-        <v>1.013570068603415</v>
+        <v>1.014844714111751</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045044145080356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.044599881820919</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022399691490465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000407158675991</v>
+        <v>1.000154900947687</v>
       </c>
       <c r="D20">
-        <v>1.024014904747674</v>
+        <v>1.023287008300329</v>
       </c>
       <c r="E20">
-        <v>1.0078392715395</v>
+        <v>1.007632517429257</v>
       </c>
       <c r="F20">
-        <v>1.030224936239058</v>
+        <v>1.029756710331461</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049363373207091</v>
+        <v>1.049020143448435</v>
       </c>
       <c r="J20">
-        <v>1.027922394056646</v>
+        <v>1.027679852728792</v>
       </c>
       <c r="K20">
-        <v>1.037648227814916</v>
+        <v>1.036932380533755</v>
       </c>
       <c r="L20">
-        <v>1.02174566331324</v>
+        <v>1.021542472902456</v>
       </c>
       <c r="M20">
-        <v>1.043756351559433</v>
+        <v>1.043295754273324</v>
       </c>
       <c r="N20">
-        <v>1.013190771388466</v>
+        <v>1.014639241275968</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043243255483369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.042878742784223</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022160695359473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9962165716844118</v>
+        <v>0.9962456958859858</v>
       </c>
       <c r="D21">
-        <v>1.021070069948057</v>
+        <v>1.020655259538374</v>
       </c>
       <c r="E21">
-        <v>1.004630716391663</v>
+        <v>1.00467186640847</v>
       </c>
       <c r="F21">
-        <v>1.027179703223984</v>
+        <v>1.026943757157486</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048104301245474</v>
+        <v>1.047950766611596</v>
       </c>
       <c r="J21">
-        <v>1.025873332603144</v>
+        <v>1.0259012259701</v>
       </c>
       <c r="K21">
-        <v>1.035662964144221</v>
+        <v>1.035255600680944</v>
       </c>
       <c r="L21">
-        <v>1.01952488632375</v>
+        <v>1.019565266135907</v>
       </c>
       <c r="M21">
-        <v>1.041663816806336</v>
+        <v>1.041432040542915</v>
       </c>
       <c r="N21">
-        <v>1.012500521688634</v>
+        <v>1.014579827573101</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041546506087746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.041363070957955</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021818959288526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9935547659084012</v>
+        <v>0.9937603079316977</v>
       </c>
       <c r="D22">
-        <v>1.019215436156297</v>
+        <v>1.018996953813552</v>
       </c>
       <c r="E22">
-        <v>1.002602849661638</v>
+        <v>1.002799295165956</v>
       </c>
       <c r="F22">
-        <v>1.025289914030199</v>
+        <v>1.025199727237228</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047306434271557</v>
+        <v>1.047271422671406</v>
       </c>
       <c r="J22">
-        <v>1.024580476657746</v>
+        <v>1.024776831463221</v>
       </c>
       <c r="K22">
-        <v>1.034415606491517</v>
+        <v>1.034201242908376</v>
       </c>
       <c r="L22">
-        <v>1.01812291933851</v>
+        <v>1.01831550069632</v>
       </c>
       <c r="M22">
-        <v>1.04037648685708</v>
+        <v>1.040287973788603</v>
       </c>
       <c r="N22">
-        <v>1.012066988573506</v>
+        <v>1.01453761877071</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040527671504078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.040457619344294</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021604132271305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9949705414330769</v>
+        <v>0.99507168312842</v>
       </c>
       <c r="D23">
-        <v>1.020201445779485</v>
+        <v>1.019870605677313</v>
       </c>
       <c r="E23">
-        <v>1.003680741279852</v>
+        <v>1.00378508216811</v>
       </c>
       <c r="F23">
-        <v>1.026294338224236</v>
+        <v>1.026120080320553</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047731616517141</v>
+        <v>1.047627972476315</v>
       </c>
       <c r="J23">
-        <v>1.025268269816153</v>
+        <v>1.025365022100165</v>
       </c>
       <c r="K23">
-        <v>1.035079257853172</v>
+        <v>1.034754496378347</v>
       </c>
       <c r="L23">
-        <v>1.018868503024529</v>
+        <v>1.018970844435649</v>
       </c>
       <c r="M23">
-        <v>1.041061114804644</v>
+        <v>1.040890008718812</v>
       </c>
       <c r="N23">
-        <v>1.012297626711687</v>
+        <v>1.014518478901379</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041069508397303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.040934089496885</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021716134639531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000442017113319</v>
+        <v>1.000190238264914</v>
       </c>
       <c r="D24">
-        <v>1.024021428340918</v>
+        <v>1.023294134553587</v>
       </c>
       <c r="E24">
-        <v>1.007861511255454</v>
+        <v>1.007655322112627</v>
       </c>
       <c r="F24">
-        <v>1.030191697347169</v>
+        <v>1.029723870568462</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049356873639187</v>
+        <v>1.049013994695098</v>
       </c>
       <c r="J24">
-        <v>1.027923062560687</v>
+        <v>1.027680967088122</v>
       </c>
       <c r="K24">
-        <v>1.037639436116816</v>
+        <v>1.036924165896311</v>
       </c>
       <c r="L24">
-        <v>1.021751962286789</v>
+        <v>1.021549322328038</v>
       </c>
       <c r="M24">
-        <v>1.043708576057985</v>
+        <v>1.043248362282517</v>
       </c>
       <c r="N24">
-        <v>1.013187837726997</v>
+        <v>1.014633411761547</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043164791787057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.042800564689073</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022155235180095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006591410190006</v>
+        <v>1.006087593439056</v>
       </c>
       <c r="D25">
-        <v>1.028332183685634</v>
+        <v>1.027267232489774</v>
       </c>
       <c r="E25">
-        <v>1.012589715008237</v>
+        <v>1.012163310348489</v>
       </c>
       <c r="F25">
-        <v>1.034602100607115</v>
+        <v>1.033893645528473</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05114539512921</v>
+        <v>1.05060933365053</v>
       </c>
       <c r="J25">
-        <v>1.030898965208384</v>
+        <v>1.030411808348781</v>
       </c>
       <c r="K25">
-        <v>1.040506041945115</v>
+        <v>1.039456508324597</v>
       </c>
       <c r="L25">
-        <v>1.024995685715638</v>
+        <v>1.024575695971347</v>
       </c>
       <c r="M25">
-        <v>1.046686001854967</v>
+        <v>1.045987642078681</v>
       </c>
       <c r="N25">
-        <v>1.014185620772792</v>
+        <v>1.015312600152974</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045521212201438</v>
+        <v>1.044968510869234</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022669030148543</v>
       </c>
     </row>
   </sheetData>
